--- a/docs/assets/disciplinas/LOQ4082.xlsx
+++ b/docs/assets/disciplinas/LOQ4082.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EQD-6,EQN-9</t>
+    <t>EQD-4,EQN-9</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -141,7 +141,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4073 -  Química Geral II  (Requisito fraco)
+    <t xml:space="preserve">LOQ4098 -  Fundamentos de Química para Engenharia II (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOQ4082.xlsx
+++ b/docs/assets/disciplinas/LOQ4082.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Propiciar aos alunos os conhecimentos básicos de corrosão, nos aspectos termodinâmicos e cinéticos, e descrever as principais formas de ataque e as técnicas de proteção contra a corrosão e a oxidação metálica.</t>
+    <t>5817344 - Livia Melo Carneiro</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5817344 - Livia Melo Carneiro</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1. Princípios da corrosão. 2. Cinética da corrosão. 3. Formas de corrosão. 4. Proteção contra a corrosão. 5. Oxidação em temperaturas elevadas.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,13 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Princípios da corrosão: Reações de oxi-redução. Potenciais de eletrodo - Sistema redox em estado de equilíbrio - Diagrama de Pourbaix
-2. Cinética da corrosão: - Sistema redox em estado de não equilíbrio - Teoria do potencial misto  Passivação.
-3. Formas de corrosão: - Corrosão galvânica - Corrosão por pites e frestas - Corrosão intergranular - Corrosão sob tensão - Danos causados pelo hidrogênio.
-4. Proteção contra a corrosão: - Proteção catódica e anódica - Inibidores  Revestimentos.
-5. Oxidação em temperaturas elevadas - Fundamentos termodinâmicos - Mecanismos de transporte - Velocidade de oxidação - Oxidação de metais puros - Oxidação de ligas.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -110,28 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>O aluno será avaliado através de duas provas escritas P1 e P2.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final NF será (P1 + P2)/2 .</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Prova escrita sobre toda matéria. A média final MF será a média da nota final NF e da nota obtida na recuperação NR: MF = (NF + NR)/2 .</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>V.GENTIL, Corrosão, Ed. Guanabara Dois, 1982
-L.V. RAMANATHAN, Corrosão e seu controle, Ed. Hermes
-L.L. SHREIR, Corrosion, Newnes Butterworths, 2 vol., 1976
-N. BIRKS and G.H.MEIER, Introduction to High Temperature Oxidation of Metals, Edward Arnold, 1983</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -498,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,114 +607,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4082.xlsx
+++ b/docs/assets/disciplinas/LOQ4082.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Propiciar aos alunos os conhecimentos básicos de corrosão, nos aspectos termodinâmicos e cinéticos, e descrever as principais formas de ataque e as técnicas de proteção contra a corrosão e a oxidação metálica.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5817344 - Livia Melo Carneiro</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1. Princípios da corrosão. 2. Cinética da corrosão. 3. Formas de corrosão. 4. Proteção contra a corrosão. 5. Oxidação em temperaturas elevadas.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,13 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Princípios da corrosão: Reações de oxi-redução. Potenciais de eletrodo - Sistema redox em estado de equilíbrio - Diagrama de Pourbaix
+2. Cinética da corrosão: - Sistema redox em estado de não equilíbrio - Teoria do potencial misto  Passivação.
+3. Formas de corrosão: - Corrosão galvânica - Corrosão por pites e frestas - Corrosão intergranular - Corrosão sob tensão - Danos causados pelo hidrogênio.
+4. Proteção contra a corrosão: - Proteção catódica e anódica - Inibidores  Revestimentos.
+5. Oxidação em temperaturas elevadas - Fundamentos termodinâmicos - Mecanismos de transporte - Velocidade de oxidação - Oxidação de metais puros - Oxidação de ligas.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +110,28 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>O aluno será avaliado através de duas provas escritas P1 e P2.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>O aluno será avaliado através de duas provas escritas P1 e P2.</t>
+    <t>A nota final NF será (P1 + P2)/2 .</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final NF será (P1 + P2)/2 .</t>
+    <t>Prova escrita sobre toda matéria. A média final MF será a média da nota final NF e da nota obtida na recuperação NR: MF = (NF + NR)/2 .</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Prova escrita sobre toda matéria. A média final MF será a média da nota final NF e da nota obtida na recuperação NR: MF = (NF + NR)/2 .</t>
+    <t>V.GENTIL, Corrosão, Ed. Guanabara Dois, 1982
+L.V. RAMANATHAN, Corrosão e seu controle, Ed. Hermes
+L.L. SHREIR, Corrosion, Newnes Butterworths, 2 vol., 1976
+N. BIRKS and G.H.MEIER, Introduction to High Temperature Oxidation of Metals, Edward Arnold, 1983</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -482,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -607,106 +623,114 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
